--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail13 Features.xlsx
@@ -5123,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5134,29 +5134,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5177,115 +5175,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5302,72 +5290,66 @@
         <v>9.2625173362329e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>4.013282480084958</v>
+        <v>7.214945475008017e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>18.74386146886337</v>
+        <v>1.600605304216348e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.214945475008017e-07</v>
+        <v>-0.1275110602123174</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.600605304216348e-06</v>
+        <v>0.4130275637129175</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1275110602123174</v>
+        <v>0.186334342319199</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.4130275637129175</v>
+        <v>1.768795423743545</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.186334342319199</v>
+        <v>1.317817833692883</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.807268192446079</v>
+        <v>16.4617323560654</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.317817833692883</v>
+        <v>8.924482303706264e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>16.4617323560654</v>
+        <v>1208825420.124424</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.924482303706264e-16</v>
+        <v>9.033952441501603e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1208825420.124424</v>
+        <v>1304.097916151066</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.033952441501603e-08</v>
+        <v>0.000190596105661095</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1304.097916151066</v>
+        <v>12.56591518116708</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000190596105661095</v>
+        <v>1.284530299652449</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.56591518116708</v>
+        <v>0.03009554903448296</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.284530299652449</v>
+        <v>4.226485980161657</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.03009554903448296</v>
+        <v>0.9639409926393729</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.226485980161657</v>
+        <v>0.9033471206985593</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9639409926393729</v>
+        <v>45</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9033471206985593</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.649326936207204</v>
       </c>
     </row>
@@ -5382,72 +5364,66 @@
         <v>6.292931354972321e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.361742162085665</v>
+        <v>4.967949004792504e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>15.43070275179212</v>
+        <v>1.590911987987471e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.967949004792504e-07</v>
+        <v>-0.1241305137757613</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.590911987987471e-06</v>
+        <v>0.4187553284170047</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1241305137757613</v>
+        <v>0.1901776947443198</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.4187553284170047</v>
+        <v>1.663682947174312</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1901776947443198</v>
+        <v>1.245047114220452</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.733001085690694</v>
+        <v>38.07061458594186</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.245047114220452</v>
+        <v>2.263933218913893e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>38.07061458594186</v>
+        <v>1392526147.736959</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.263933218913893e-15</v>
+        <v>7.690972999760845e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1392526147.736959</v>
+        <v>4390.05872215935</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>7.690972999760845e-08</v>
+        <v>5.626652376606198e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>4390.05872215935</v>
+        <v>13.36605404417154</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>5.626652376606198e-05</v>
+        <v>1.000060895996781</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.36605404417154</v>
+        <v>0.01005209328398594</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.000060895996781</v>
+        <v>6.459689262309081</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01005209328398594</v>
+        <v>0.963538230124345</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.459689262309081</v>
+        <v>0.71152859299989</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.963538230124345</v>
+        <v>63</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.71152859299989</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>6.039497616671403</v>
       </c>
     </row>
@@ -5462,72 +5438,66 @@
         <v>4.456137539831488e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.090278078519322</v>
+        <v>3.376065864460074e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>8.751977427410502</v>
+        <v>1.584637705000708e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.376065864460074e-07</v>
+        <v>-0.1103007277434027</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.584637705000708e-06</v>
+        <v>0.3930093112883334</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1103007277434027</v>
+        <v>0.1660498183279714</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3930093112883334</v>
+        <v>1.655028891301455</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1660498183279714</v>
+        <v>1.245999589555887</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.720271921344082</v>
+        <v>38.11076335395457</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.245999589555887</v>
+        <v>2.259165733604063e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>38.11076335395457</v>
+        <v>1395462678.933832</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.259165733604063e-15</v>
+        <v>7.674684029066008e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1395462678.933832</v>
+        <v>4399.309779176911</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.674684029066008e-08</v>
+        <v>2.527826822088505e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>4399.309779176911</v>
+        <v>8.902114313269532</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2.527826822088505e-05</v>
+        <v>1.282657819204255</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.902114313269532</v>
+        <v>0.002003243080745426</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.282657819204255</v>
+        <v>7.36616697001507</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.002003243080745426</v>
+        <v>0.9614972830501373</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>7.36616697001507</v>
+        <v>0.8137690664695315</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9614972830501373</v>
+        <v>66</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.8137690664695315</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>7.926366723812976</v>
       </c>
     </row>
@@ -5542,72 +5512,66 @@
         <v>3.470662432049761e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.654230131737177</v>
+        <v>2.290896715162826e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.388110819165552</v>
+        <v>1.580791869862677e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.290896715162826e-07</v>
+        <v>-0.08447241804314544</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.580791869862677e-06</v>
+        <v>0.3213733771427575</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.08447241804314544</v>
+        <v>0.1100080226386207</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3213733771427575</v>
+        <v>1.649195852167918</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1100080226386207</v>
+        <v>1.244046972486932</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.710303382469917</v>
+        <v>35.37616630524774</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.244046972486932</v>
+        <v>2.621934594867091e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>35.37616630524774</v>
+        <v>1202364165.906252</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.621934594867091e-15</v>
+        <v>8.907113335462998e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1202364165.906252</v>
+        <v>3790.477323442592</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.907113335462998e-08</v>
+        <v>1.967353606780932e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3790.477323442592</v>
+        <v>7.048886907072532</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>1.967353606780932e-05</v>
+        <v>1.772924733035788</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.048886907072532</v>
+        <v>0.0009775151823039683</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.772924733035788</v>
+        <v>7.849609497517172</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0009775151823039683</v>
+        <v>0.9607377975557964</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>7.849609497517172</v>
+        <v>0.8067627884937565</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9607377975557964</v>
+        <v>66</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.8067627884937565</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>8.972633119285526</v>
       </c>
     </row>
@@ -5984,7 +5948,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.415243368856233</v>
+        <v>1.454589739651573</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.106411747838129</v>
@@ -6073,7 +6037,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.465923041253133</v>
+        <v>1.505006735566249</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.959741225944279</v>
@@ -6162,7 +6126,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.485689264664582</v>
+        <v>1.523561125140423</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.095154808884986</v>
@@ -6251,7 +6215,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.482131071568488</v>
+        <v>1.5185013409392</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.105568756072252</v>
@@ -6340,7 +6304,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.498110356008342</v>
+        <v>1.536261433883479</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.041739784123479</v>
@@ -6429,7 +6393,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.568071323632499</v>
+        <v>1.603898022738339</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.87809269163024</v>
@@ -6518,7 +6482,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.564311570083286</v>
+        <v>1.590555766738523</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.088229723824089</v>
@@ -6607,7 +6571,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.527272498505983</v>
+        <v>1.562000488102075</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.035353079887156</v>
@@ -6696,7 +6660,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.46405231762179</v>
+        <v>1.501554992637272</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.121972606919676</v>
@@ -6785,7 +6749,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.509461406710805</v>
+        <v>1.539614516936973</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.906389977519142</v>
@@ -6874,7 +6838,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.507661393002475</v>
+        <v>1.535732539744152</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.113903189508283</v>
@@ -6963,7 +6927,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.520307883517953</v>
+        <v>1.544325663540495</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.0960402231764</v>
@@ -7052,7 +7016,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.470985713643312</v>
+        <v>1.494521744373485</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.082228011316248</v>
@@ -7141,7 +7105,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.330384785676138</v>
+        <v>1.343371592046969</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.606990902563122</v>
@@ -7230,7 +7194,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.304269901037797</v>
+        <v>1.318701920135484</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.621523044754676</v>
@@ -7319,7 +7283,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.310268105837452</v>
+        <v>1.328743149502157</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.629979093511278</v>
@@ -7408,7 +7372,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.299523288494591</v>
+        <v>1.314319272701506</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.634725072263888</v>
@@ -7497,7 +7461,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.306523015999832</v>
+        <v>1.322477042221438</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.643659148059935</v>
@@ -7586,7 +7550,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.293957587125347</v>
+        <v>1.309007729204053</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.660406591741444</v>
@@ -7675,7 +7639,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.311748882722895</v>
+        <v>1.320004643285666</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.663470381763931</v>
@@ -7764,7 +7728,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.294799963981185</v>
+        <v>1.306848950291414</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.65959288052262</v>
@@ -7853,7 +7817,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.300257167068319</v>
+        <v>1.311486272892177</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.648175657518822</v>
@@ -7942,7 +7906,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.305621097467024</v>
+        <v>1.315017618144988</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.649668077016148</v>
@@ -8031,7 +7995,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.30398224050852</v>
+        <v>1.315540881981911</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.655431273389856</v>
@@ -8120,7 +8084,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.28687676121472</v>
+        <v>1.294997131458832</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.675491460599631</v>
@@ -8209,7 +8173,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.292860130640359</v>
+        <v>1.302895191507358</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.666999199828731</v>
@@ -8298,7 +8262,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.324501057941894</v>
+        <v>1.332064608665846</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.719144099725396</v>
@@ -8387,7 +8351,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.323184517111252</v>
+        <v>1.332964603045197</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.725416158457862</v>
@@ -8476,7 +8440,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.435292654450942</v>
+        <v>1.448367348288761</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.951775464036703</v>
@@ -8565,7 +8529,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.457660578412157</v>
+        <v>1.46988547468856</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.173422349408592</v>
@@ -8654,7 +8618,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.442763510301184</v>
+        <v>1.450089188684369</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.291186453815319</v>
@@ -8743,7 +8707,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.464075643380428</v>
+        <v>1.47027218139538</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.18892894840313</v>
@@ -8832,7 +8796,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.45310712534715</v>
+        <v>1.458434566315737</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.261085542844953</v>
@@ -8921,7 +8885,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.479063650256582</v>
+        <v>1.484622991727783</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.232041432466499</v>
@@ -9010,7 +8974,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.498814469519555</v>
+        <v>1.503899247195204</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.944689464629248</v>
@@ -9099,7 +9063,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.494652895086321</v>
+        <v>1.502442381649723</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.284788817341228</v>
@@ -9188,7 +9152,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.518365163416559</v>
+        <v>1.51779353704538</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.335739946529144</v>
@@ -9277,7 +9241,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.5168117579594</v>
+        <v>1.519952151595689</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.27127525766611</v>
@@ -9366,7 +9330,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.572431811340053</v>
+        <v>1.567448575236215</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.289569876186094</v>
@@ -9455,7 +9419,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.613599602456908</v>
+        <v>1.607524845546242</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.304969593943512</v>
@@ -9544,7 +9508,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.590457819386432</v>
+        <v>1.583860069245175</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.297227734345059</v>
@@ -9633,7 +9597,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.591828374712814</v>
+        <v>1.584302409823389</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.410829058806644</v>
@@ -9722,7 +9686,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.587644416765586</v>
+        <v>1.580371899097378</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.277346861855984</v>
@@ -9811,7 +9775,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.576446074422825</v>
+        <v>1.566079182862546</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.296992948223385</v>
@@ -9900,7 +9864,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.582895492846373</v>
+        <v>1.574862424728506</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.296334596636866</v>
@@ -9989,7 +9953,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.559201799483462</v>
+        <v>1.560294629814828</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.172397849461928</v>
@@ -10078,7 +10042,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.507021378943269</v>
+        <v>1.516004539515585</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.193185793369635</v>
@@ -10167,7 +10131,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.501710715412141</v>
+        <v>1.514090611833753</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.228726310895393</v>
@@ -10256,7 +10220,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.498186691725265</v>
+        <v>1.511672941962126</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.176021694114349</v>
@@ -10542,7 +10506,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.347789010290344</v>
+        <v>1.39401651919476</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.204301281497024</v>
@@ -10631,7 +10595,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.377950989794504</v>
+        <v>1.423098855060192</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.02356277395901</v>
@@ -10720,7 +10684,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.408624326099553</v>
+        <v>1.457628372686052</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.320885371330906</v>
@@ -10809,7 +10773,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.40542397786718</v>
+        <v>1.449730025617799</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.234577433683321</v>
@@ -10898,7 +10862,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.424878349138467</v>
+        <v>1.474022847009773</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.137085297842249</v>
@@ -10987,7 +10951,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.456013973699064</v>
+        <v>1.507719662998857</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.989519635947722</v>
@@ -11076,7 +11040,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.502442235889853</v>
+        <v>1.539802338489324</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.199749744561919</v>
@@ -11165,7 +11129,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.506824124714747</v>
+        <v>1.553857211187066</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.236952033537951</v>
@@ -11254,7 +11218,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.484196893506411</v>
+        <v>1.530920117074068</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.272213990495319</v>
@@ -11343,7 +11307,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.553262012944809</v>
+        <v>1.594538119742561</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.989256603453719</v>
@@ -11432,7 +11396,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.565334215894588</v>
+        <v>1.609031323535784</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.532183912889482</v>
@@ -11521,7 +11485,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.581898592840236</v>
+        <v>1.623056905303242</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.528542491639732</v>
@@ -11610,7 +11574,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.557443462158306</v>
+        <v>1.591081412124609</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.381785413529566</v>
@@ -11699,7 +11663,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.510755387833049</v>
+        <v>1.54285978860157</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.386194289206936</v>
@@ -11788,7 +11752,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.488935458482189</v>
+        <v>1.517441701993983</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.326192208403175</v>
@@ -11877,7 +11841,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.484548649822995</v>
+        <v>1.5188456839854</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.29640217046965</v>
@@ -11966,7 +11930,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.456552233661957</v>
+        <v>1.490092166194164</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.272281222533114</v>
@@ -12055,7 +12019,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.445403954560335</v>
+        <v>1.474702055662493</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.231101252547023</v>
@@ -12144,7 +12108,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.425601217246018</v>
+        <v>1.457967831522012</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.395221439663336</v>
@@ -12233,7 +12197,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.444655142618064</v>
+        <v>1.468223438450144</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.290914491296174</v>
@@ -12322,7 +12286,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.414851393637578</v>
+        <v>1.447811573505957</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.250828511286994</v>
@@ -12411,7 +12375,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.402533351751126</v>
+        <v>1.434094493043288</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.151894440610769</v>
@@ -12500,7 +12464,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.405422520089284</v>
+        <v>1.434930017412094</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.179298873808332</v>
@@ -12589,7 +12553,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.378959414360886</v>
+        <v>1.409543566879731</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.171655834310275</v>
@@ -12678,7 +12642,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.33895489965175</v>
+        <v>1.364279021449412</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.240700813736995</v>
@@ -12767,7 +12731,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.339755681965294</v>
+        <v>1.367329079288919</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.209548803196446</v>
@@ -12856,7 +12820,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.343498044339455</v>
+        <v>1.372083171364932</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.066600306195778</v>
@@ -12945,7 +12909,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.346650919401998</v>
+        <v>1.374261250212075</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.213963783268144</v>
@@ -13034,7 +12998,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.370515273613651</v>
+        <v>1.401187283799557</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.185625740794107</v>
@@ -13123,7 +13087,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.382487019420918</v>
+        <v>1.412789254938957</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.075699948743438</v>
@@ -13212,7 +13176,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.375747742257291</v>
+        <v>1.402192847769532</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.2359375317898</v>
@@ -13301,7 +13265,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.396036514050293</v>
+        <v>1.425140517875554</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.107063953636601</v>
@@ -13390,7 +13354,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.401141933328957</v>
+        <v>1.427133400484983</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.075836541056526</v>
@@ -13479,7 +13443,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.420760838743947</v>
+        <v>1.446776352109376</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.15183326054721</v>
@@ -13568,7 +13532,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.422278221739239</v>
+        <v>1.442621594807545</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.920210281949051</v>
@@ -13657,7 +13621,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.417612871071096</v>
+        <v>1.43680026579069</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.250432070973296</v>
@@ -13746,7 +13710,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.420609402874346</v>
+        <v>1.430791895328045</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.269918092149098</v>
@@ -13835,7 +13799,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.413612462265171</v>
+        <v>1.429921268499855</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.246419745472282</v>
@@ -13924,7 +13888,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.484138094530471</v>
+        <v>1.495894252261363</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.221254461011816</v>
@@ -14013,7 +13977,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.508055322551686</v>
+        <v>1.517146818881505</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.248093388849668</v>
@@ -14102,7 +14066,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.488184760105286</v>
+        <v>1.493171493492797</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.33809842029473</v>
@@ -14191,7 +14155,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.488239718939432</v>
+        <v>1.492145505857208</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.257351733464092</v>
@@ -14280,7 +14244,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.468266370246282</v>
+        <v>1.475860459746891</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.24803579833528</v>
@@ -14369,7 +14333,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.459155820679742</v>
+        <v>1.463344635568576</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.255495422308474</v>
@@ -14458,7 +14422,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.460264374291826</v>
+        <v>1.470591379223095</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.317101442618677</v>
@@ -14547,7 +14511,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.44640263238258</v>
+        <v>1.458338479381212</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.111221700879029</v>
@@ -14636,7 +14600,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.429967718472004</v>
+        <v>1.441294184566426</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.231202381192266</v>
@@ -14725,7 +14689,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.427628533735276</v>
+        <v>1.441397628934702</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.265844706910808</v>
@@ -14814,7 +14778,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.41385276993073</v>
+        <v>1.421776516367665</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.130397299922474</v>
@@ -15100,7 +15064,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.625026046732606</v>
+        <v>1.61189198939609</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.948470999722637</v>
@@ -15189,7 +15153,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.64210401162195</v>
+        <v>1.628084128220946</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.890265569244625</v>
@@ -15278,7 +15242,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.643522445286957</v>
+        <v>1.630469410613804</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.938903506364497</v>
@@ -15367,7 +15331,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.62845617802301</v>
+        <v>1.613253148319416</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.910261745659788</v>
@@ -15456,7 +15420,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.621956919129369</v>
+        <v>1.621976931800957</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.754724291869475</v>
@@ -15545,7 +15509,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.625242792799101</v>
+        <v>1.627108983938587</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.683949232574378</v>
@@ -15634,7 +15598,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.609550945286235</v>
+        <v>1.605737544910794</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.897156844823867</v>
@@ -15723,7 +15687,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.60355958623831</v>
+        <v>1.600905434022335</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.950309317146772</v>
@@ -15812,7 +15776,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.594974928267246</v>
+        <v>1.594878654114411</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.261216231606336</v>
@@ -15901,7 +15865,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.628192139834809</v>
+        <v>1.639259250662514</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.632762817887465</v>
@@ -15990,7 +15954,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.643069511866942</v>
+        <v>1.656251411456947</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.00606303803028</v>
@@ -16079,7 +16043,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.65727344938315</v>
+        <v>1.67022248069821</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.268476408877985</v>
@@ -16168,7 +16132,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.629501464935575</v>
+        <v>1.642632860170079</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.00149926977899</v>
@@ -16257,7 +16221,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.625468553158983</v>
+        <v>1.633553825753109</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.04719796719947</v>
@@ -16346,7 +16310,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.627294720147868</v>
+        <v>1.632742134361688</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.884816226840521</v>
@@ -16435,7 +16399,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.640777209932172</v>
+        <v>1.643740198853936</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.197898058439107</v>
@@ -16524,7 +16488,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.634498530993747</v>
+        <v>1.633361703624619</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.169752585156965</v>
@@ -16613,7 +16577,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.640493439306719</v>
+        <v>1.633592426007701</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.96147581686273</v>
@@ -16702,7 +16666,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.637919683704146</v>
+        <v>1.631264733498296</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.197590092293116</v>
@@ -16791,7 +16755,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.644097643489089</v>
+        <v>1.630767810264495</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.989152906986137</v>
@@ -16880,7 +16844,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.624679450877493</v>
+        <v>1.607853196765194</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.178535976603215</v>
@@ -16969,7 +16933,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.632928343169438</v>
+        <v>1.618046629011411</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.099775317514092</v>
@@ -17058,7 +17022,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.636176074218721</v>
+        <v>1.618016890231234</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.015539501779055</v>
@@ -17147,7 +17111,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.644358646557478</v>
+        <v>1.625264437801039</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.950080689368688</v>
@@ -17236,7 +17200,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.60594128301392</v>
+        <v>1.578221875207984</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.799903044031856</v>
@@ -17325,7 +17289,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.606760308772496</v>
+        <v>1.576622131927792</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.926633389107098</v>
@@ -17414,7 +17378,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.621030229499812</v>
+        <v>1.59061995867074</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.369012021730125</v>
@@ -17503,7 +17467,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.58614345676864</v>
+        <v>1.555938621715749</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.335339986530546</v>
@@ -17592,7 +17556,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.584194090026896</v>
+        <v>1.557847728292126</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.21215206180607</v>
@@ -17681,7 +17645,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.577722953594611</v>
+        <v>1.547534593557293</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.209608415726945</v>
@@ -17770,7 +17734,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.575962738113083</v>
+        <v>1.542102132970256</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.232829847115376</v>
@@ -17859,7 +17823,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.578950564620036</v>
+        <v>1.546301105739461</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.268050759594294</v>
@@ -17948,7 +17912,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.572236593374278</v>
+        <v>1.540655846378886</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.267764718946545</v>
@@ -18037,7 +18001,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.579664453724848</v>
+        <v>1.54845853764307</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.383116026392873</v>
@@ -18126,7 +18090,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.58954117581798</v>
+        <v>1.551838460069908</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.404223463612138</v>
@@ -18215,7 +18179,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.585243504761481</v>
+        <v>1.552775037616007</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.242664965534257</v>
@@ -18304,7 +18268,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.584045225938724</v>
+        <v>1.54904203934537</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.260338316570212</v>
@@ -18393,7 +18357,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.591010810657599</v>
+        <v>1.555723133661371</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.376583129205324</v>
@@ -18482,7 +18446,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.594100520318827</v>
+        <v>1.559168548786306</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.289931223741468</v>
@@ -18571,7 +18535,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.608938880047374</v>
+        <v>1.576003736079483</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.310890662552024</v>
@@ -18660,7 +18624,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.605844510079055</v>
+        <v>1.567982895972416</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.342614720058676</v>
@@ -18749,7 +18713,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.615051595240425</v>
+        <v>1.57177119387538</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.325844698362582</v>
@@ -18838,7 +18802,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.617702645452655</v>
+        <v>1.578677186216499</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.991427719717081</v>
@@ -18927,7 +18891,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.622503179538971</v>
+        <v>1.576947447110282</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.005045635575093</v>
@@ -19016,7 +18980,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.626663054443532</v>
+        <v>1.587633909121051</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.044124702367223</v>
@@ -19105,7 +19069,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.627318598287189</v>
+        <v>1.59170825348271</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.785342131245743</v>
@@ -19194,7 +19158,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.61011501398993</v>
+        <v>1.58048696637874</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.414822651133286</v>
@@ -19283,7 +19247,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.601522058117812</v>
+        <v>1.574451557643844</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.514518737189998</v>
@@ -19372,7 +19336,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.597310682522042</v>
+        <v>1.571737372425924</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.596869325995868</v>
@@ -19658,7 +19622,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.694904019711538</v>
+        <v>1.672939010321047</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.637243599502181</v>
@@ -19747,7 +19711,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.692653961497519</v>
+        <v>1.677894721013132</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.676719024098225</v>
@@ -19836,7 +19800,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.695257063012721</v>
+        <v>1.682735078147065</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.677464941550434</v>
@@ -19925,7 +19889,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.681958980284882</v>
+        <v>1.66899516636167</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.457256396815882</v>
@@ -20014,7 +19978,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.684830378551007</v>
+        <v>1.680637010058097</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.483252200499669</v>
@@ -20103,7 +20067,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.661709929874319</v>
+        <v>1.663716348988507</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.537965291956874</v>
@@ -20192,7 +20156,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.669012501311387</v>
+        <v>1.671245356989398</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.215652033428744</v>
@@ -20281,7 +20245,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.675322316191924</v>
+        <v>1.677672537731747</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.200465742570232</v>
@@ -20370,7 +20334,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.719243272420128</v>
+        <v>1.717746845357747</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.705153094130446</v>
@@ -20459,7 +20423,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.781620427360749</v>
+        <v>1.803993291176207</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.357160730567458</v>
@@ -20548,7 +20512,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.786106821106566</v>
+        <v>1.805778918718255</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.348386136930548</v>
@@ -20637,7 +20601,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.787302969418199</v>
+        <v>1.808789742710325</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.302736292864155</v>
@@ -20726,7 +20690,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.776489852068445</v>
+        <v>1.797899115326912</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.355439455113157</v>
@@ -20815,7 +20779,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.760189085011687</v>
+        <v>1.782109731096294</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.350030415467891</v>
@@ -20904,7 +20868,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.763312929044909</v>
+        <v>1.77956843903873</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.33508010491352</v>
@@ -20993,7 +20957,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.763220615485439</v>
+        <v>1.774815349806344</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.269882961461561</v>
@@ -21082,7 +21046,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.763611647600051</v>
+        <v>1.769947637949628</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.41972611527957</v>
@@ -21171,7 +21135,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.762329250945325</v>
+        <v>1.768272661447441</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.310664076592289</v>
@@ -21260,7 +21224,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.762019115596119</v>
+        <v>1.767667939227947</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.388911478491792</v>
@@ -21349,7 +21313,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.762013039584376</v>
+        <v>1.766440116987336</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.388399117358536</v>
@@ -21438,7 +21402,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.765160802896216</v>
+        <v>1.754466847888693</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.343580578890641</v>
@@ -21527,7 +21491,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.761892106914803</v>
+        <v>1.748584398144861</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.337731243419074</v>
@@ -21616,7 +21580,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.763496331341947</v>
+        <v>1.747809200082404</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.353544085909151</v>
@@ -21705,7 +21669,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.772806633174416</v>
+        <v>1.751249574876484</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.257948955564117</v>
@@ -21794,7 +21758,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.693772037180654</v>
+        <v>1.645958613321095</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.456151478568724</v>
@@ -21883,7 +21847,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.690665422652702</v>
+        <v>1.645973808186632</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.735671467190042</v>
@@ -21972,7 +21936,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.718729115502046</v>
+        <v>1.669413171288237</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.450450180549012</v>
@@ -22061,7 +22025,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.714703141404709</v>
+        <v>1.660224735960991</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.53109328079408</v>
@@ -22150,7 +22114,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.73741959114934</v>
+        <v>1.680409358822176</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.424456962833805</v>
@@ -22239,7 +22203,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.725940874578238</v>
+        <v>1.675773214153934</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.43759052644012</v>
@@ -22328,7 +22292,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.72677771074084</v>
+        <v>1.678407126074871</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.426017208822974</v>
@@ -22417,7 +22381,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.731051513150207</v>
+        <v>1.685517212244791</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.496602764041142</v>
@@ -22506,7 +22470,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.729420798716153</v>
+        <v>1.683530828235417</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.495428020550085</v>
@@ -22595,7 +22559,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.733788243356191</v>
+        <v>1.691092616033025</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.65402077373874</v>
@@ -22684,7 +22648,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.7429508304733</v>
+        <v>1.690436795305861</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.373917999104092</v>
@@ -22773,7 +22737,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.746418408084401</v>
+        <v>1.710628386991283</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.560805648910552</v>
@@ -22862,7 +22826,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.750904144442197</v>
+        <v>1.716770171088911</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.50300009853865</v>
@@ -22951,7 +22915,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.741102897845322</v>
+        <v>1.709674735234489</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.59982593864096</v>
@@ -23040,7 +23004,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.726646845085582</v>
+        <v>1.693896480239111</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.496365808675898</v>
@@ -23129,7 +23093,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.731768447251007</v>
+        <v>1.695159393267304</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.425210782336664</v>
@@ -23218,7 +23182,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.733814752786851</v>
+        <v>1.69497981663277</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.439501437419084</v>
@@ -23307,7 +23271,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.716323929937036</v>
+        <v>1.674420985001852</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.861491434375382</v>
@@ -23396,7 +23360,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.715790275989975</v>
+        <v>1.682251290867299</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.137066709173193</v>
@@ -23485,7 +23449,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.712416414255574</v>
+        <v>1.67666544916327</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.060549452432522</v>
@@ -23574,7 +23538,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.725778538050342</v>
+        <v>1.689187999807781</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.119812632103283</v>
@@ -23663,7 +23627,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.711329326852473</v>
+        <v>1.678332468541334</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.401211716272738</v>
@@ -23752,7 +23716,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.715014425729846</v>
+        <v>1.682896197503439</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.759426088473579</v>
@@ -23841,7 +23805,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.723084926986172</v>
+        <v>1.689952706997006</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.738047295774074</v>
@@ -23930,7 +23894,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.72836550300621</v>
+        <v>1.697371425608072</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.627266173530257</v>
@@ -24216,7 +24180,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.726780404442961</v>
+        <v>1.731275861726007</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.41627607631901</v>
@@ -24305,7 +24269,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.728499384840411</v>
+        <v>1.735950207417786</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.145256301607171</v>
@@ -24394,7 +24358,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.722691255467182</v>
+        <v>1.72748739890366</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.257741119954543</v>
@@ -24483,7 +24447,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.70939958724485</v>
+        <v>1.715181940663032</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.131031346039379</v>
@@ -24572,7 +24536,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.703361252779719</v>
+        <v>1.714210102577868</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.323807238707848</v>
@@ -24661,7 +24625,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.716197435422334</v>
+        <v>1.727111192954091</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.038002651879887</v>
@@ -24750,7 +24714,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.708607410392608</v>
+        <v>1.723015349455134</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.988799890493572</v>
@@ -24839,7 +24803,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.702280869052191</v>
+        <v>1.718411626656645</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.007521736939135</v>
@@ -24928,7 +24892,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.76278252527592</v>
+        <v>1.780549805180745</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.331215170279322</v>
@@ -25017,7 +24981,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.812314229956665</v>
+        <v>1.847013146168533</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.302233383879597</v>
@@ -25106,7 +25070,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.814375893131926</v>
+        <v>1.847514519154038</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.39935838631429</v>
@@ -25195,7 +25159,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.815829379819019</v>
+        <v>1.846141387544997</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.392762673325307</v>
@@ -25284,7 +25248,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.799727415088828</v>
+        <v>1.833950099634416</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.336129179608336</v>
@@ -25373,7 +25337,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.789659654979154</v>
+        <v>1.825827419198583</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.357827927823741</v>
@@ -25462,7 +25426,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.788240031655588</v>
+        <v>1.828272877660342</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.359381799828108</v>
@@ -25551,7 +25515,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.799627667062609</v>
+        <v>1.838048281489632</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.356291932977497</v>
@@ -25640,7 +25604,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.794702175046308</v>
+        <v>1.831467231711515</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.378733823221631</v>
@@ -25729,7 +25693,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.794013583150897</v>
+        <v>1.834320577129636</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.367769522957508</v>
@@ -25818,7 +25782,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.783163639203811</v>
+        <v>1.826546017575309</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.386748936349893</v>
@@ -25907,7 +25871,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.790261782149976</v>
+        <v>1.829704799605628</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.356419167840642</v>
@@ -25996,7 +25960,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.789270286073595</v>
+        <v>1.827990973176633</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.359699934864202</v>
@@ -26085,7 +26049,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.796367310043807</v>
+        <v>1.83340306552005</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.333887523851995</v>
@@ -26174,7 +26138,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.791471259810442</v>
+        <v>1.828334405945548</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.357602838584866</v>
@@ -26263,7 +26227,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.807924231952927</v>
+        <v>1.835167714345914</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.205814448365513</v>
@@ -26352,7 +26316,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.715175525296253</v>
+        <v>1.732002943256425</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.322197233645969</v>
@@ -26441,7 +26405,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.722939877548394</v>
+        <v>1.734882925829753</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.419830827643998</v>
@@ -26530,7 +26494,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.729677036669266</v>
+        <v>1.736168560664547</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.298628339912008</v>
@@ -26619,7 +26583,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.731183187214498</v>
+        <v>1.736938809683032</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.393700729556365</v>
@@ -26708,7 +26672,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.743483214871389</v>
+        <v>1.747656245150425</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.570113611359357</v>
@@ -26797,7 +26761,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.750319326009691</v>
+        <v>1.748608914050952</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.430515050008336</v>
@@ -26886,7 +26850,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.760602382334067</v>
+        <v>1.754716629924842</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.406964160491419</v>
@@ -26975,7 +26939,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.779169307012332</v>
+        <v>1.766624743622466</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.525591520650778</v>
@@ -27064,7 +27028,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.772967400392983</v>
+        <v>1.758781777347102</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.342240769274892</v>
@@ -27153,7 +27117,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.772191935811163</v>
+        <v>1.760184579997821</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.380192934226692</v>
@@ -27242,7 +27206,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.759485802140277</v>
+        <v>1.754632659757489</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.445634012903152</v>
@@ -27331,7 +27295,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.744070277902626</v>
+        <v>1.744311022270326</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.419728220677789</v>
@@ -27420,7 +27384,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.72849969680519</v>
+        <v>1.731609426731948</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.430435476621937</v>
@@ -27509,7 +27473,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.729106499022992</v>
+        <v>1.732307348107586</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.508504512246594</v>
@@ -27598,7 +27562,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.706134099235853</v>
+        <v>1.710546117665937</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.523147460457501</v>
@@ -27687,7 +27651,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.69908513144093</v>
+        <v>1.696726037313069</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.505583601084143</v>
@@ -27776,7 +27740,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.688687680628456</v>
+        <v>1.683549630212241</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.153319206915328</v>
@@ -27865,7 +27829,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.695213364294368</v>
+        <v>1.691603702261759</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.923726268955182</v>
@@ -27954,7 +27918,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.693185307340753</v>
+        <v>1.687185585289506</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.999099379311496</v>
@@ -28043,7 +28007,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.697052767345852</v>
+        <v>1.69171550834699</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.908635865799299</v>
@@ -28132,7 +28096,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.694178570380208</v>
+        <v>1.6883129467282</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.056716068482333</v>
@@ -28221,7 +28185,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.671842343360082</v>
+        <v>1.672201096966831</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.05787832357436</v>
@@ -28310,7 +28274,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.659897789611903</v>
+        <v>1.671359542364888</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.917382837383391</v>
@@ -28399,7 +28363,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.66875948732627</v>
+        <v>1.677481045597391</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.785285876790511</v>
@@ -28488,7 +28452,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.668864073276867</v>
+        <v>1.676084041922965</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.880254288469537</v>
@@ -28774,7 +28738,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.395261765007076</v>
+        <v>1.409054567402599</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.041500603717944</v>
@@ -28863,7 +28827,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.441876568446929</v>
+        <v>1.455050146719633</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.886262482227613</v>
@@ -28952,7 +28916,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.446433031009053</v>
+        <v>1.457640574231178</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.005688880640033</v>
@@ -29041,7 +29005,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.432869342159974</v>
+        <v>1.445399701227861</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.988294365982473</v>
@@ -29130,7 +29094,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.439541266638757</v>
+        <v>1.450096324313957</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.940075671713754</v>
@@ -29219,7 +29183,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.479663216239472</v>
+        <v>1.485109441601125</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.847715590974939</v>
@@ -29308,7 +29272,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.484378259804448</v>
+        <v>1.484770629278949</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.023865090128301</v>
@@ -29397,7 +29361,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.464048732158235</v>
+        <v>1.472736742312778</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.011428192795548</v>
@@ -29486,7 +29450,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.444488439385176</v>
+        <v>1.459241200834809</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.128389461652921</v>
@@ -29575,7 +29539,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.539401229984984</v>
+        <v>1.560778311873866</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.975709544133254</v>
@@ -29664,7 +29628,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.545925541948626</v>
+        <v>1.566355121008637</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.227284840650712</v>
@@ -29753,7 +29717,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.547484556248619</v>
+        <v>1.566606663351885</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.177261363355392</v>
@@ -29842,7 +29806,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.514572462127007</v>
+        <v>1.534812102140397</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.168780597380259</v>
@@ -29931,7 +29895,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.47933754964319</v>
+        <v>1.506999736880286</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.234225190836902</v>
@@ -30020,7 +29984,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.461504205106948</v>
+        <v>1.481594852595957</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.280512096852788</v>
@@ -30109,7 +30073,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.457158176720923</v>
+        <v>1.482003300300592</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.249236707859194</v>
@@ -30198,7 +30162,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.443301987774392</v>
+        <v>1.465846659214037</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.295143480879439</v>
@@ -30287,7 +30251,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.450863490330176</v>
+        <v>1.477266256058501</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.289833795267791</v>
@@ -30376,7 +30340,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.441881598962138</v>
+        <v>1.467562918641323</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.393721947535536</v>
@@ -30465,7 +30429,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.470635360256797</v>
+        <v>1.493484350302132</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.410423115562111</v>
@@ -30554,7 +30518,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.456296928576183</v>
+        <v>1.483743282987698</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.319514255761414</v>
@@ -30643,7 +30607,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.463844823175377</v>
+        <v>1.492427062296684</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.231396376588478</v>
@@ -30732,7 +30696,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.464203839044384</v>
+        <v>1.490987552020832</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.215491824527698</v>
@@ -30821,7 +30785,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.452281407021773</v>
+        <v>1.478132270099074</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.18642551553506</v>
@@ -30910,7 +30874,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.379678050132437</v>
+        <v>1.392741337200966</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.271476630396658</v>
@@ -30999,7 +30963,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.387922557384905</v>
+        <v>1.402418161483201</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.295511623479185</v>
@@ -31088,7 +31052,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.433159677193191</v>
+        <v>1.444227563752882</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.146887245839278</v>
@@ -31177,7 +31141,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.438253268931971</v>
+        <v>1.450096472946937</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.337151509240755</v>
@@ -31266,7 +31230,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.478744371307364</v>
+        <v>1.483837266310097</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.399964325355301</v>
@@ -31355,7 +31319,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.502640447881125</v>
+        <v>1.509353987902273</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.204313437689485</v>
@@ -31444,7 +31408,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.488506287172046</v>
+        <v>1.495559118702898</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.380775963295908</v>
@@ -31533,7 +31497,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.512277897629736</v>
+        <v>1.518673753317394</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.295098531689726</v>
@@ -31622,7 +31586,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.514750331352374</v>
+        <v>1.518793727361208</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.412159701383722</v>
@@ -31711,7 +31675,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.543266350688225</v>
+        <v>1.547025668572716</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.414872059457468</v>
@@ -31800,7 +31764,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.55324843197241</v>
+        <v>1.551382464371365</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.072878580371298</v>
@@ -31889,7 +31853,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.555575359151244</v>
+        <v>1.557224912830476</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.481202894688553</v>
@@ -31978,7 +31942,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.56678405467523</v>
+        <v>1.56087694893203</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.437786331237499</v>
@@ -32067,7 +32031,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.56633301190358</v>
+        <v>1.564896901428934</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.561784053351818</v>
@@ -32156,7 +32120,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.622667743004031</v>
+        <v>1.609160642715706</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.439460450433348</v>
@@ -32245,7 +32209,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.66472952752266</v>
+        <v>1.648453058585116</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.441071814540386</v>
@@ -32334,7 +32298,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.639302855626946</v>
+        <v>1.62545759262335</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.530225091945791</v>
@@ -32423,7 +32387,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.625795098662674</v>
+        <v>1.612798493130297</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.311169390369791</v>
@@ -32512,7 +32476,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.601386582718593</v>
+        <v>1.594739782344336</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.395888146828173</v>
@@ -32601,7 +32565,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.593139200720363</v>
+        <v>1.582561252894964</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.294989763665343</v>
@@ -32690,7 +32654,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.590597325760172</v>
+        <v>1.581526635780132</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.354479831147569</v>
@@ -32779,7 +32743,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.555331254082925</v>
+        <v>1.554950891638875</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.214503271087559</v>
@@ -32868,7 +32832,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.514463837185451</v>
+        <v>1.516454402047281</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.254851805030453</v>
@@ -32957,7 +32921,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.501111109494672</v>
+        <v>1.504343659435651</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.26952513333378</v>
@@ -33046,7 +33010,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.481675726300708</v>
+        <v>1.485871217101811</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.208752404335085</v>
